--- a/base.xlsx
+++ b/base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Pedro Viana</t>
   </si>
   <si>
-    <t xml:space="preserve">contatovianapedro@gmail.com</t>
+    <t xml:space="preserve">(85) 3879-5344</t>
   </si>
   <si>
     <t xml:space="preserve">salário</t>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">27.771.789/0001-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(85) 3879-5344</t>
   </si>
 </sst>
 </file>
@@ -73,7 +70,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -94,13 +91,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,7 +135,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -155,19 +145,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -189,12 +175,13 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.94"/>
   </cols>
@@ -244,17 +231,14 @@
       <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>13</v>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="contatovianapedro@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
